--- a/Base/Teams/Dolphins/Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="C2">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="C2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="D2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Dolphins/Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="C2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>11</v>

--- a/Base/Teams/Dolphins/Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C3">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>

--- a/Base/Teams/Dolphins/Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C3">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>11</v>

--- a/Base/Teams/Dolphins/Target Depth Data.xlsx
+++ b/Base/Teams/Dolphins/Target Depth Data.xlsx
@@ -427,13 +427,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="C2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>27</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="C2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>6</v>
